--- a/biology/Zoologie/Acherontiini/Acherontiini.xlsx
+++ b/biology/Zoologie/Acherontiini/Acherontiini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Acherontiini regroupe des lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Sphinginae.
 </t>
@@ -511,13 +523,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Acherontiini a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1875.
-Taxinomie
-Liste des genres
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La tribu des Acherontiini a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1875.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acherontiini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acherontiini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des genres
 Acherontia Laspeyres, 1809
-Agrius Hübner, [1819]
+Agrius Hübner, 
 Callosphingia Rothschild &amp; Jordan, 1916
 Coelonia Rothschild &amp; Jordan, 1903
 Megacorma Rothschild &amp; Jordan, 1903
@@ -529,31 +577,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Acherontiini</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acherontiini</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartis entre l'Afrique, le sud de l'Eurasie et de l'Océanie, mais ne sont pas présents sur le continent américain.
 Sur les autres projets Wikimedia :
